--- a/biology/Zoologie/Histioteuthis_bonnellii/Histioteuthis_bonnellii.xlsx
+++ b/biology/Zoologie/Histioteuthis_bonnellii/Histioteuthis_bonnellii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calmar à ombrelle
 Histioteuthis bonnellii, le Calmar à ombrelle, est une espèce de calmars de la famille des Histioteuthidae.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants[1] : Afrique du Sud, Algérie, Australie, Canada, Espagne, Maroc, Nouvelle-Zélande, Portugal, Tunisie, États-Unis.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants : Afrique du Sud, Algérie, Australie, Canada, Espagne, Maroc, Nouvelle-Zélande, Portugal, Tunisie, États-Unis.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Histioteuthis bonnellii (A.Férussac, 1835)[2].
-L'espèce a été initialement classée dans le genre Cranchia sous le protonyme Cranchia bonnellii A.Férussac, 1835[2],[3].
-Histioteuthis bonnellii a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Histioteuthis bonnellii (A.Férussac, 1835).
+L'espèce a été initialement classée dans le genre Cranchia sous le protonyme Cranchia bonnellii A.Férussac, 1835,.
+Histioteuthis bonnellii a pour synonymes :
 Cranchia bonelliana
 Cranchia bonnellii A.Férussac, 1835
 Histioteuthis bonelliana (Férussac, 1834)
@@ -585,9 +601,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, bonnellii, lui a été donnée en l'honneur de Franco Bonnelli[4] (1784-1830), professeur à Turin[3].  
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, bonnellii, lui a été donnée en l'honneur de Franco Bonnelli (1784-1830), professeur à Turin.  
 </t>
         </is>
       </c>
@@ -616,7 +634,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>de Férussac, « Note sur deux genres de Céphalopodes encore peu connus, les genres Calmaret et Cranchie, et sur une nouvelle espèce fort remarquable de chacun de ces deux genres », Magasin de Zoologie, Paris, vol. 5,‎ 1835, p. 1-9 (lire en ligne, consulté le 19 septembre 2023).</t>
         </is>
